--- a/biology/Zoologie/Eurema_agave/Eurema_agave.xlsx
+++ b/biology/Zoologie/Eurema_agave/Eurema_agave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema agave est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurema agave a été décrit par Pieter Cramer en 1775 sous le nom de Papilio agave[1].
-Sous-espèces
-Eurema agave agave au Surinam et en Guyane française.
-Eurema agave millerorum (Llorente et Luis, 1987) au Mexique.
-Eurema agave pallida (Chavannes, 1850) au Brésil.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema agave a été décrit par Pieter Cramer en 1775 sous le nom de Papilio agave.
+</t>
         </is>
       </c>
     </row>
@@ -542,15 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema agave est un papillon de taille moyenne, de couleur blanche avec aux antérieures une bordure marron. Le revers est de la même couleur blanche avec aux antérieures une bordure jaune.
-Nom vernaculaire
-Eurema agave se nomme Agave Yellow en anglais[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurema agave agave au Surinam et en Guyane française.
+Eurema agave millerorum (Llorente et Luis, 1987) au Mexique.
+Eurema agave pallida (Chavannes, 1850) au Brésil.</t>
         </is>
       </c>
     </row>
@@ -575,10 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema agave est un papillon de taille moyenne, de couleur blanche avec aux antérieures une bordure marron. Le revers est de la même couleur blanche avec aux antérieures une bordure jaune.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,16 +624,118 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema agave se nomme Agave Yellow en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_agave</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_agave</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_agave</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_agave</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema agave  est présent au Mexique, au Surinam, en Guyane française et au Brésil[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema agave  est présent au Mexique, au Surinam, en Guyane française et au Brésil.
 Sur les autres projets Wikimedia :
 Eurema agave, sur Wikimedia CommonsEurema agave, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_agave</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_agave</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
